--- a/output/pharma_nordic_example_net_description.xlsx
+++ b/output/pharma_nordic_example_net_description.xlsx
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.3167701863354038</v>
+        <v>0.3167701863354037</v>
       </c>
     </row>
   </sheetData>
